--- a/connectors/TopConnector.xlsx
+++ b/connectors/TopConnector.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Top Connector</t>
   </si>
@@ -55,6 +55,30 @@
   </si>
   <si>
     <t>gray1</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>Servo1</t>
+  </si>
+  <si>
+    <t>Servo2</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>Ctrl1</t>
+  </si>
+  <si>
+    <t>Ctrl2</t>
   </si>
 </sst>
 </file>
@@ -104,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -112,9 +136,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,114 +444,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="6.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
